--- a/excel/0126中山中京小仓第二名.xlsx
+++ b/excel/0126中山中京小仓第二名.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,32 +477,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7022934</v>
+        <v>7028820</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Japan -- Chukyo</t>
+          <t>日本 -- Nakayama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hagino Sustainable</t>
+          <t>Matenro Leo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>38427332</v>
+        <v>36305258</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hagino Sustainable</t>
+          <t>Matenro Leo</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -511,35 +511,69 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7022921</v>
+        <v>7028827</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>日本 -- Nakayama</t>
+          <t>日本 -- Chukyo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lux Big Star</t>
+          <t>Sunrise Zipangu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>38906538</v>
+        <v>39257142</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lux Big Star</t>
+          <t>Sunrise Zipangu</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7028775</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>日本 -- Kokura</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Meiner Tigre</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39546186</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Meiner Tigre</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>12314435</v>
       </c>
     </row>
